--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>572993.6190112259</v>
+        <v>515726.6621658591</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8547013.059513934</v>
+        <v>8088944.869226762</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8506890.903312847</v>
+        <v>8722880.896883903</v>
       </c>
     </row>
     <row r="11">
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>165.1725371760944</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>165.1725371760942</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -791,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>165.1725371760943</v>
       </c>
       <c r="U3" t="n">
-        <v>186.1649406925468</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>38.11163636040577</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402855</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>52.21594625443403</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="G5" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>165.1725371760944</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>187.5255871663198</v>
+        <v>165.1725371760942</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>187.5255871663195</v>
       </c>
     </row>
     <row r="6">
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>51.2117841796014</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>87.73917396899907</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>187.5255871663195</v>
       </c>
     </row>
     <row r="7">
@@ -1095,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709389</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>34.10833718734042</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>52.21594625443404</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>171.6251371481119</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>116.8405921356973</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.08171901666381</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>187.5255871663198</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1211,31 +1211,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>22.32983799160504</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
-        <v>13.45644170423123</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>187.5255871663198</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>187.5255871663198</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>31.68046530976816</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>52.21594625443431</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292592</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>201.6622187863195</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>36.34690181272098</v>
       </c>
     </row>
     <row r="12">
@@ -1463,7 +1463,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657088</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
         <v>89.59687541851115</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>72.08802744677315</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>87.93270968653191</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>230.6968828249258</v>
+        <v>309.820670096501</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1688,7 +1688,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883163</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>61.3691750088708</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>179.1870119246124</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.2480189963546</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>28.95911863073169</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1925,7 +1925,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>121.4856996582646</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>127.675255927006</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2089,19 +2089,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>219.1834685212287</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>34.43410098197675</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>58.28185552386306</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>115.0138334144182</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>41.86741718539974</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2335,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>83.83622493438801</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2380,13 +2380,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>20.95866062610959</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>229.7965692041367</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>33.3830437605888</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>54.45803047044429</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>243.5875274224989</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2803,16 +2803,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>16.34825474388511</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>76.28380354614096</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>76.2838035461409</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3037,19 +3037,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>289.0908630279709</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>284.4297735342292</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>146.8428862394539</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>54.51165059784287</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>294.3263193288732</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3274,13 +3274,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>113.1061620820469</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>72.08802744677213</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>133.7337232129123</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>321.9504068351019</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>126.5388824951718</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>54.4580304704437</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>225.5286766224914</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>267.7473854578251</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>229.7965692041371</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>28.31233659742176</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>91.83524374703775</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3985,19 +3985,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>315.5299577615964</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>349.4526337405161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>81.46084344268475</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>166.6628257988641</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>371.2627786323097</v>
+        <v>560.682563648794</v>
       </c>
       <c r="C2" t="n">
-        <v>371.2627786323097</v>
+        <v>560.682563648794</v>
       </c>
       <c r="D2" t="n">
-        <v>371.2627786323097</v>
+        <v>560.682563648794</v>
       </c>
       <c r="E2" t="n">
-        <v>181.8429936158251</v>
+        <v>371.2627786323095</v>
       </c>
       <c r="F2" t="n">
-        <v>181.8429936158251</v>
+        <v>371.2627786323095</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330558</v>
+        <v>181.842993615825</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678492</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058936</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079181</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644751</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123823</v>
+        <v>509.4952041123825</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985577</v>
+        <v>649.4845259985575</v>
       </c>
       <c r="P2" t="n">
-        <v>734.461172602026</v>
+        <v>734.4611726020256</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.102348665279</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R2" t="n">
-        <v>750.102348665279</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S2" t="n">
-        <v>750.102348665279</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="T2" t="n">
-        <v>750.102348665279</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="U2" t="n">
-        <v>750.102348665279</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="V2" t="n">
-        <v>560.6825636487944</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="W2" t="n">
-        <v>560.6825636487944</v>
+        <v>560.682563648794</v>
       </c>
       <c r="X2" t="n">
-        <v>560.6825636487944</v>
+        <v>560.682563648794</v>
       </c>
       <c r="Y2" t="n">
-        <v>371.2627786323097</v>
+        <v>560.682563648794</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024206</v>
+        <v>67.13418877024202</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772647</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140241</v>
+        <v>338.769091114024</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546597</v>
+        <v>512.5000587546593</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476343</v>
+        <v>649.210157847634</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017056</v>
+        <v>739.5989987017052</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.102348665279</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R3" t="n">
-        <v>750.102348665279</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S3" t="n">
-        <v>750.102348665279</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="T3" t="n">
-        <v>750.102348665279</v>
+        <v>583.2614020227591</v>
       </c>
       <c r="U3" t="n">
-        <v>562.0569540263429</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="V3" t="n">
-        <v>372.6371690098582</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="W3" t="n">
-        <v>372.6371690098582</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="X3" t="n">
-        <v>183.2173839933736</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="Y3" t="n">
-        <v>183.2173839933736</v>
+        <v>15.00204697330557</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J4" t="n">
-        <v>29.24882464404148</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230172</v>
+        <v>27.03967056230162</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170709</v>
+        <v>42.98993985170694</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396325</v>
+        <v>66.418473293963</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330557</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>393.841617006275</v>
+        <v>393.8416170062743</v>
       </c>
       <c r="C5" t="n">
-        <v>393.841617006275</v>
+        <v>393.8416170062743</v>
       </c>
       <c r="D5" t="n">
-        <v>393.841617006275</v>
+        <v>393.8416170062743</v>
       </c>
       <c r="E5" t="n">
-        <v>393.841617006275</v>
+        <v>393.8416170062743</v>
       </c>
       <c r="F5" t="n">
-        <v>393.841617006275</v>
+        <v>204.42183198979</v>
       </c>
       <c r="G5" t="n">
-        <v>204.4218319897903</v>
+        <v>204.42183198979</v>
       </c>
       <c r="H5" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678512</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058956</v>
+        <v>80.8121315905891</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079181</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644749</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123821</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985582</v>
+        <v>649.484525998557</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020252</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="R5" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="S5" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="T5" t="n">
-        <v>583.2614020227597</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="U5" t="n">
-        <v>583.2614020227597</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="V5" t="n">
-        <v>583.2614020227597</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="W5" t="n">
-        <v>583.2614020227597</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="X5" t="n">
-        <v>393.841617006275</v>
+        <v>583.2614020227587</v>
       </c>
       <c r="Y5" t="n">
-        <v>393.841617006275</v>
+        <v>393.8416170062743</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>241.1841511833229</v>
+        <v>320.7740599518761</v>
       </c>
       <c r="C6" t="n">
-        <v>66.73112190219589</v>
+        <v>320.7740599518761</v>
       </c>
       <c r="D6" t="n">
-        <v>66.73112190219589</v>
+        <v>320.7740599518761</v>
       </c>
       <c r="E6" t="n">
-        <v>66.73112190219589</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="F6" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="G6" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="H6" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="I6" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="K6" t="n">
         <v>67.13418877024196</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772647</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140242</v>
+        <v>338.7690911140239</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546599</v>
+        <v>512.5000587546594</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476345</v>
+        <v>649.2101578476339</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017059</v>
+        <v>739.5989987017051</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652784</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652784</v>
       </c>
       <c r="S6" t="n">
-        <v>598.8192732198756</v>
+        <v>598.8192732198747</v>
       </c>
       <c r="T6" t="n">
-        <v>598.8192732198756</v>
+        <v>598.8192732198747</v>
       </c>
       <c r="U6" t="n">
-        <v>409.3994882033909</v>
+        <v>598.8192732198747</v>
       </c>
       <c r="V6" t="n">
-        <v>409.3994882033909</v>
+        <v>598.8192732198747</v>
       </c>
       <c r="W6" t="n">
-        <v>409.3994882033909</v>
+        <v>598.8192732198747</v>
       </c>
       <c r="X6" t="n">
-        <v>409.3994882033909</v>
+        <v>510.1938449683605</v>
       </c>
       <c r="Y6" t="n">
-        <v>409.3994882033909</v>
+        <v>320.7740599518761</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="C7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="D7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="E7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="F7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="G7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="H7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="I7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="K7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230172</v>
+        <v>27.03967056230162</v>
       </c>
       <c r="M7" t="n">
-        <v>42.9899398517071</v>
+        <v>42.98993985170694</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396325</v>
+        <v>66.418473293963</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="P7" t="n">
-        <v>49.454912819104</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="Q7" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="R7" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="S7" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="T7" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="U7" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="V7" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="W7" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="X7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>133.0228471103735</v>
+        <v>845.7541926763687</v>
       </c>
       <c r="C8" t="n">
-        <v>133.0228471103735</v>
+        <v>845.7541926763687</v>
       </c>
       <c r="D8" t="n">
-        <v>133.0228471103735</v>
+        <v>845.7541926763687</v>
       </c>
       <c r="E8" t="n">
-        <v>133.0228471103735</v>
+        <v>845.7541926763687</v>
       </c>
       <c r="F8" t="n">
-        <v>133.0228471103735</v>
+        <v>845.7541926763687</v>
       </c>
       <c r="G8" t="n">
-        <v>133.0228471103735</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="H8" t="n">
-        <v>133.0228471103735</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330558</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678492</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058936</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079181</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644751</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123823</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985577</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>734.461172602026</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.102348665279</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R8" t="n">
-        <v>672.2420264262247</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S8" t="n">
-        <v>511.8624171433428</v>
+        <v>2036.325171642783</v>
       </c>
       <c r="T8" t="n">
-        <v>511.8624171433428</v>
+        <v>2036.325171642783</v>
       </c>
       <c r="U8" t="n">
-        <v>511.8624171433428</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="V8" t="n">
-        <v>511.8624171433428</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="W8" t="n">
-        <v>322.4426321268581</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="X8" t="n">
-        <v>133.0228471103735</v>
+        <v>1409.252249044213</v>
       </c>
       <c r="Y8" t="n">
-        <v>133.0228471103735</v>
+        <v>1019.112917068401</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>203.0474416122419</v>
+        <v>494.1595330380378</v>
       </c>
       <c r="C9" t="n">
-        <v>28.59441233111491</v>
+        <v>494.1595330380378</v>
       </c>
       <c r="D9" t="n">
-        <v>28.59441233111491</v>
+        <v>471.6041411273256</v>
       </c>
       <c r="E9" t="n">
-        <v>28.59441233111491</v>
+        <v>312.3666861218701</v>
       </c>
       <c r="F9" t="n">
-        <v>28.59441233111491</v>
+        <v>312.3666861218701</v>
       </c>
       <c r="G9" t="n">
-        <v>28.59441233111491</v>
+        <v>175.490692336986</v>
       </c>
       <c r="H9" t="n">
-        <v>28.59441233111491</v>
+        <v>80.03532540581917</v>
       </c>
       <c r="I9" t="n">
-        <v>28.59441233111491</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330558</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024206</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772647</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140241</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546599</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476345</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017058</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652792</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652792</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>750.1023486652792</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="T9" t="n">
-        <v>750.1023486652792</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="U9" t="n">
-        <v>750.1023486652792</v>
+        <v>1399.160796968469</v>
       </c>
       <c r="V9" t="n">
-        <v>750.1023486652792</v>
+        <v>1164.008688736726</v>
       </c>
       <c r="W9" t="n">
-        <v>750.1023486652792</v>
+        <v>909.7713320085245</v>
       </c>
       <c r="X9" t="n">
-        <v>560.6825636487946</v>
+        <v>701.9198318029917</v>
       </c>
       <c r="Y9" t="n">
-        <v>371.26277863231</v>
+        <v>494.1595330380378</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.00204697330558</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="C10" t="n">
-        <v>15.00204697330558</v>
+        <v>488.2888770307322</v>
       </c>
       <c r="D10" t="n">
-        <v>15.00204697330558</v>
+        <v>338.1722376183965</v>
       </c>
       <c r="E10" t="n">
-        <v>15.00204697330558</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="F10" t="n">
-        <v>15.00204697330558</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="G10" t="n">
-        <v>15.00204697330558</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H10" t="n">
-        <v>15.00204697330558</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I10" t="n">
-        <v>15.00204697330558</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330558</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="K10" t="n">
-        <v>15.00204697330558</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
-        <v>27.03967056230172</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>42.98993985170709</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>66.41847329396325</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>67.74542702828974</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>67.74542702828974</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.74542702828974</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>67.74542702828974</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S10" t="n">
-        <v>15.00204697330558</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T10" t="n">
-        <v>15.00204697330558</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U10" t="n">
-        <v>15.00204697330558</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V10" t="n">
-        <v>15.00204697330558</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W10" t="n">
-        <v>15.00204697330558</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X10" t="n">
-        <v>15.00204697330558</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.00204697330558</v>
+        <v>520.2893470405991</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2345.167438673965</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
@@ -5050,7 +5050,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5068,25 +5068,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>3325.605821609171</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X11" t="n">
-        <v>3121.906610713899</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2731.767278738087</v>
+        <v>1661.795585684488</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D12" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>848.0708164780106</v>
+        <v>155.3330353074682</v>
       </c>
       <c r="C13" t="n">
-        <v>679.1346335501037</v>
+        <v>155.3330353074682</v>
       </c>
       <c r="D13" t="n">
-        <v>529.0179941377679</v>
+        <v>155.3330353074682</v>
       </c>
       <c r="E13" t="n">
-        <v>381.1049005553748</v>
+        <v>155.3330353074682</v>
       </c>
       <c r="F13" t="n">
-        <v>234.2149530574645</v>
+        <v>155.3330353074682</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>155.3330353074682</v>
       </c>
       <c r="H13" t="n">
         <v>66.51211643218342</v>
@@ -5229,22 +5229,22 @@
         <v>920.8870058181855</v>
       </c>
       <c r="T13" t="n">
-        <v>920.8870058181855</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="U13" t="n">
-        <v>920.8870058181855</v>
+        <v>410.0175235133551</v>
       </c>
       <c r="V13" t="n">
-        <v>920.8870058181855</v>
+        <v>155.3330353074682</v>
       </c>
       <c r="W13" t="n">
-        <v>920.8870058181855</v>
+        <v>155.3330353074682</v>
       </c>
       <c r="X13" t="n">
-        <v>920.8870058181855</v>
+        <v>155.3330353074682</v>
       </c>
       <c r="Y13" t="n">
-        <v>920.8870058181855</v>
+        <v>155.3330353074682</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2209.232076102165</v>
+        <v>1878.169188758593</v>
       </c>
       <c r="C14" t="n">
-        <v>1976.204921733553</v>
+        <v>1565.219016943946</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H14" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912081</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810547</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5290,40 +5290,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.605821609171</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W14" t="n">
-        <v>2972.837166339057</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X14" t="n">
-        <v>2599.371408077977</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y14" t="n">
-        <v>2209.232076102165</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="15">
@@ -5333,7 +5333,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
         <v>767.0908251999817</v>
@@ -5348,55 +5348,55 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>128.5011820977095</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="C16" t="n">
-        <v>128.5011820977095</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="D16" t="n">
-        <v>128.5011820977095</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="E16" t="n">
-        <v>128.5011820977095</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F16" t="n">
-        <v>128.5011820977095</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G16" t="n">
-        <v>128.5011820977095</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H16" t="n">
-        <v>128.5011820977095</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O16" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R16" t="n">
-        <v>831.0565485757135</v>
+        <v>831.0565485757121</v>
       </c>
       <c r="S16" t="n">
-        <v>639.3706644025399</v>
+        <v>831.0565485757121</v>
       </c>
       <c r="T16" t="n">
-        <v>417.6040489720659</v>
+        <v>831.0565485757121</v>
       </c>
       <c r="U16" t="n">
-        <v>128.5011820977095</v>
+        <v>650.0595668336794</v>
       </c>
       <c r="V16" t="n">
-        <v>128.5011820977095</v>
+        <v>650.0595668336794</v>
       </c>
       <c r="W16" t="n">
-        <v>128.5011820977095</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="X16" t="n">
-        <v>128.5011820977095</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="Y16" t="n">
-        <v>128.5011820977095</v>
+        <v>360.6423967967187</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2249.271807195286</v>
+        <v>1506.36381994936</v>
       </c>
       <c r="C17" t="n">
-        <v>1880.309290254875</v>
+        <v>1137.401303008948</v>
       </c>
       <c r="D17" t="n">
-        <v>1522.043591648124</v>
+        <v>779.1356044021975</v>
       </c>
       <c r="E17" t="n">
-        <v>1136.25533904988</v>
+        <v>393.3473518039532</v>
       </c>
       <c r="F17" t="n">
-        <v>725.2694342602724</v>
+        <v>393.3473518039532</v>
       </c>
       <c r="G17" t="n">
-        <v>310.1969841052689</v>
+        <v>393.3473518039532</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>95.76375141272047</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U17" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V17" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W17" t="n">
-        <v>3009.337405520488</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X17" t="n">
-        <v>2635.871647259408</v>
+        <v>2283.102991989293</v>
       </c>
       <c r="Y17" t="n">
-        <v>2635.871647259408</v>
+        <v>1892.963660013481</v>
       </c>
     </row>
     <row r="18">
@@ -5570,7 +5570,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
         <v>767.0908251999817</v>
@@ -5585,22 +5585,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5612,10 +5612,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C19" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T19" t="n">
-        <v>699.1203903877109</v>
+        <v>791.9221008414108</v>
       </c>
       <c r="U19" t="n">
-        <v>410.0175235133545</v>
+        <v>502.8192339670544</v>
       </c>
       <c r="V19" t="n">
-        <v>410.0175235133545</v>
+        <v>502.8192339670544</v>
       </c>
       <c r="W19" t="n">
-        <v>410.0175235133545</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="X19" t="n">
-        <v>410.0175235133545</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="Y19" t="n">
-        <v>189.2249443698244</v>
+        <v>213.4020639300938</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1285.591601078695</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C20" t="n">
-        <v>916.6290841382836</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D20" t="n">
-        <v>558.3633855315331</v>
+        <v>971.2814123723965</v>
       </c>
       <c r="E20" t="n">
-        <v>558.3633855315331</v>
+        <v>585.4931597741522</v>
       </c>
       <c r="F20" t="n">
-        <v>558.3633855315331</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G20" t="n">
-        <v>143.2909353765296</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912091</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U20" t="n">
-        <v>3119.628073993394</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V20" t="n">
-        <v>2788.565186649823</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W20" t="n">
-        <v>2435.796531379709</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X20" t="n">
-        <v>2062.330773118629</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y20" t="n">
-        <v>1672.191441142817</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3085.086795643716</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C22" t="n">
-        <v>2916.15061271581</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D22" t="n">
-        <v>2766.033973303474</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E22" t="n">
-        <v>2618.120879721081</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F22" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G22" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H22" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I22" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K22" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L22" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M22" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N22" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O22" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P22" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S22" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T22" t="n">
-        <v>3266.735260473956</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U22" t="n">
-        <v>3266.735260473956</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V22" t="n">
-        <v>3266.735260473956</v>
+        <v>804.7114165106914</v>
       </c>
       <c r="W22" t="n">
-        <v>3266.735260473956</v>
+        <v>515.2942464737308</v>
       </c>
       <c r="X22" t="n">
-        <v>3266.735260473956</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y22" t="n">
-        <v>3266.735260473956</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1930.094988518961</v>
+        <v>1274.539111149739</v>
       </c>
       <c r="C23" t="n">
-        <v>1561.13247157855</v>
+        <v>905.5765942093278</v>
       </c>
       <c r="D23" t="n">
-        <v>1202.866772971799</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E23" t="n">
-        <v>817.078520373555</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F23" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
         <v>255.3912473912088</v>
@@ -6004,37 +6004,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T23" t="n">
-        <v>3240.92276611989</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U23" t="n">
-        <v>2987.392289393727</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V23" t="n">
-        <v>2656.329402050156</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W23" t="n">
-        <v>2303.560746780041</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X23" t="n">
-        <v>1930.094988518961</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y23" t="n">
-        <v>1930.094988518961</v>
+        <v>1661.138951213861</v>
       </c>
     </row>
     <row r="24">
@@ -6044,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
         <v>2096.912393410638</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.51211643218342</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C25" t="n">
-        <v>66.51211643218342</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D25" t="n">
-        <v>66.51211643218342</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E25" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L25" t="n">
         <v>332.3555681596505</v>
@@ -6180,19 +6180,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U25" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V25" t="n">
-        <v>377.0996507379416</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W25" t="n">
-        <v>87.68248070098099</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X25" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y25" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1822.632236038042</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C26" t="n">
-        <v>1453.669719097631</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D26" t="n">
-        <v>1095.40402049088</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E26" t="n">
-        <v>709.6157678926361</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F26" t="n">
-        <v>298.6298631030285</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G26" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
         <v>66.5121164321834</v>
@@ -6229,13 +6229,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060171</v>
@@ -6253,25 +6253,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V26" t="n">
-        <v>3325.60582160917</v>
+        <v>3181.594906913448</v>
       </c>
       <c r="W26" t="n">
-        <v>2972.837166339056</v>
+        <v>2828.826251643334</v>
       </c>
       <c r="X26" t="n">
-        <v>2599.371408077976</v>
+        <v>2455.360493382254</v>
       </c>
       <c r="Y26" t="n">
-        <v>2209.232076102164</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>936.5735814686066</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>827.064395508012</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>920.7416649986294</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M27" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W27" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>290.4564109463977</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C28" t="n">
-        <v>121.5202280184908</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D28" t="n">
-        <v>66.5121164321834</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E28" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F28" t="n">
         <v>66.5121164321834</v>
@@ -6426,10 +6426,10 @@
         <v>920.8870058181849</v>
       </c>
       <c r="X28" t="n">
-        <v>692.8974549201675</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y28" t="n">
-        <v>472.1048757766374</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2005.586939522201</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="C29" t="n">
-        <v>1636.624422581789</v>
+        <v>869.0763550278964</v>
       </c>
       <c r="D29" t="n">
-        <v>1278.358723975039</v>
+        <v>510.8106564211459</v>
       </c>
       <c r="E29" t="n">
-        <v>892.5704713767946</v>
+        <v>125.0224038229017</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V29" t="n">
-        <v>2994.542934265601</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W29" t="n">
-        <v>2641.774278995486</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X29" t="n">
-        <v>2641.774278995486</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y29" t="n">
-        <v>2251.634947019675</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="30">
@@ -6533,22 +6533,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>290.4564109463978</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C31" t="n">
-        <v>290.4564109463978</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D31" t="n">
-        <v>290.4564109463978</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E31" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L31" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R31" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S31" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T31" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U31" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V31" t="n">
-        <v>920.887005818185</v>
+        <v>843.8326588018809</v>
       </c>
       <c r="W31" t="n">
-        <v>920.887005818185</v>
+        <v>843.8326588018809</v>
       </c>
       <c r="X31" t="n">
-        <v>692.8974549201677</v>
+        <v>615.8431079038636</v>
       </c>
       <c r="Y31" t="n">
-        <v>472.1048757766375</v>
+        <v>395.0505287603335</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2175.400891308157</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C32" t="n">
-        <v>1806.438374367745</v>
+        <v>758.7856865549913</v>
       </c>
       <c r="D32" t="n">
-        <v>1448.172675760994</v>
+        <v>400.5199879482408</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.38442316275</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F32" t="n">
-        <v>651.3985183731427</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G32" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
         <v>2120.555556060171</v>
@@ -6727,25 +6727,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.60582160917</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V32" t="n">
-        <v>3325.60582160917</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W32" t="n">
-        <v>3325.60582160917</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X32" t="n">
-        <v>2952.14006334809</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y32" t="n">
-        <v>2562.000731372279</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="33">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>920.8870058181849</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C34" t="n">
-        <v>920.8870058181849</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D34" t="n">
-        <v>772.5608581015648</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E34" t="n">
-        <v>624.6477645191717</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F34" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G34" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
         <v>66.5121164321834</v>
@@ -6891,19 +6891,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U34" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V34" t="n">
-        <v>920.8870058181849</v>
+        <v>576.721865612674</v>
       </c>
       <c r="W34" t="n">
-        <v>920.8870058181849</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="X34" t="n">
-        <v>920.8870058181849</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y34" t="n">
-        <v>920.8870058181849</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1619.798686923957</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C35" t="n">
-        <v>1250.836169983545</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D35" t="n">
-        <v>892.5704713767946</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E35" t="n">
-        <v>892.5704713767946</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F35" t="n">
-        <v>481.5845665871869</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G35" t="n">
         <v>66.5121164321834</v>
@@ -6967,22 +6967,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3101.066504568541</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U35" t="n">
-        <v>3101.066504568541</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V35" t="n">
-        <v>2770.00361722497</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W35" t="n">
-        <v>2770.00361722497</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X35" t="n">
-        <v>2396.53785896389</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y35" t="n">
-        <v>2006.398526988078</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="36">
@@ -7022,7 +7022,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3252.789632268996</v>
+        <v>518.445961844415</v>
       </c>
       <c r="C37" t="n">
-        <v>3083.853449341089</v>
+        <v>349.5097789165081</v>
       </c>
       <c r="D37" t="n">
-        <v>2933.736809928754</v>
+        <v>349.5097789165081</v>
       </c>
       <c r="E37" t="n">
-        <v>2785.82371634636</v>
+        <v>201.596685334115</v>
       </c>
       <c r="F37" t="n">
-        <v>2638.93376884845</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G37" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K37" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L37" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N37" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O37" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P37" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R37" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S37" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T37" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U37" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V37" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W37" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X37" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y37" t="n">
-        <v>3325.60582160917</v>
+        <v>700.0944266746548</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1844.338003964586</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C38" t="n">
-        <v>1844.338003964586</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D38" t="n">
-        <v>1486.072305357836</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E38" t="n">
-        <v>1100.284052759591</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F38" t="n">
-        <v>689.2981479699838</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G38" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V38" t="n">
-        <v>2994.542934265599</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W38" t="n">
-        <v>2994.542934265599</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X38" t="n">
-        <v>2621.07717600452</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y38" t="n">
-        <v>2230.937844028708</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="39">
@@ -7244,16 +7244,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2695.175226737383</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C40" t="n">
-        <v>2526.239043809476</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D40" t="n">
-        <v>2471.230932223169</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E40" t="n">
-        <v>2471.230932223169</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K40" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L40" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M40" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N40" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O40" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P40" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S40" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T40" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U40" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V40" t="n">
-        <v>3325.60582160917</v>
+        <v>693.0802617550623</v>
       </c>
       <c r="W40" t="n">
-        <v>3325.60582160917</v>
+        <v>693.0802617550623</v>
       </c>
       <c r="X40" t="n">
-        <v>3097.616270711153</v>
+        <v>693.0802617550623</v>
       </c>
       <c r="Y40" t="n">
-        <v>2876.823691567623</v>
+        <v>693.0802617550623</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1822.632236038043</v>
+        <v>1590.807527238424</v>
       </c>
       <c r="C41" t="n">
-        <v>1453.669719097631</v>
+        <v>1590.807527238424</v>
       </c>
       <c r="D41" t="n">
-        <v>1095.404020490881</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E41" t="n">
-        <v>709.6157678926365</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F41" t="n">
-        <v>298.629863103029</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7432,7 +7432,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
@@ -7444,19 +7444,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.605821609171</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W41" t="n">
-        <v>2972.837166339056</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="X41" t="n">
-        <v>2599.371408077976</v>
+        <v>2367.546699278357</v>
       </c>
       <c r="Y41" t="n">
-        <v>2209.232076102165</v>
+        <v>1977.407367302545</v>
       </c>
     </row>
     <row r="42">
@@ -7466,40 +7466,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N42" t="n">
         <v>1685.951113992584</v>
@@ -7508,7 +7508,7 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>409.7032203507503</v>
+        <v>478.3278112441814</v>
       </c>
       <c r="C43" t="n">
-        <v>409.7032203507503</v>
+        <v>309.3916283162745</v>
       </c>
       <c r="D43" t="n">
-        <v>409.7032203507503</v>
+        <v>159.2749889039387</v>
       </c>
       <c r="E43" t="n">
-        <v>381.1049005553748</v>
+        <v>159.2749889039387</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K43" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L43" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T43" t="n">
-        <v>699.1203903877109</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="U43" t="n">
-        <v>699.1203903877109</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="V43" t="n">
-        <v>699.1203903877109</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="W43" t="n">
-        <v>409.7032203507503</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="X43" t="n">
-        <v>409.7032203507503</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="Y43" t="n">
-        <v>409.7032203507503</v>
+        <v>478.3278112441814</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1661.795585684488</v>
+        <v>1565.440264581602</v>
       </c>
       <c r="C44" t="n">
-        <v>1292.833068744076</v>
+        <v>1196.47774764119</v>
       </c>
       <c r="D44" t="n">
-        <v>934.5673701373257</v>
+        <v>838.2120490344398</v>
       </c>
       <c r="E44" t="n">
-        <v>934.5673701373257</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F44" t="n">
-        <v>523.5814653477182</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G44" t="n">
         <v>108.5090151927147</v>
@@ -7645,55 +7645,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U44" t="n">
-        <v>3072.075344883006</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V44" t="n">
-        <v>2741.012457539436</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W44" t="n">
-        <v>2388.243802269321</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X44" t="n">
-        <v>2014.778044008242</v>
+        <v>1952.040104645724</v>
       </c>
       <c r="Y44" t="n">
-        <v>1661.795585684488</v>
+        <v>1952.040104645724</v>
       </c>
     </row>
     <row r="45">
@@ -7718,31 +7718,31 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N45" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P45" t="n">
         <v>2407.411984886741</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2471.230932223169</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K46" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L46" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M46" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N46" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O46" t="n">
-        <v>3213.734051497871</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P46" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q46" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R46" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S46" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T46" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U46" t="n">
-        <v>3243.322141364034</v>
+        <v>631.784138943829</v>
       </c>
       <c r="V46" t="n">
-        <v>2988.637653158147</v>
+        <v>631.784138943829</v>
       </c>
       <c r="W46" t="n">
-        <v>2699.220483121187</v>
+        <v>463.4378502581077</v>
       </c>
       <c r="X46" t="n">
-        <v>2471.230932223169</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="Y46" t="n">
-        <v>2471.230932223169</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
   </sheetData>
@@ -22555,19 +22555,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.404782905942</v>
+        <v>194.4047829059421</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>247.9252960539637</v>
+        <v>225.5722460637384</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>151.7212889301281</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,10 +22594,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666381</v>
+        <v>77.0817190166639</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -22606,16 +22606,16 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038152</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510934</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897338</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22646,10 +22646,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.9045589040915</v>
+        <v>58.90455890409152</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265842</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846321</v>
+        <v>72.43289562846324</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>30.23706061590696</v>
       </c>
       <c r="U3" t="n">
-        <v>39.69882771754413</v>
+        <v>38.33818124377129</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310552</v>
+        <v>45.27499998310563</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459997</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715772</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22728,10 +22728,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>18.95836326784843</v>
+        <v>57.06999962825422</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,10 +22746,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709389</v>
+        <v>18.10760906709393</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159727</v>
+        <v>68.6860405515973</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -22761,7 +22761,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>234.0491352390163</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22795,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753919</v>
       </c>
       <c r="G5" t="n">
-        <v>225.5722460637382</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H5" t="n">
-        <v>129.3682389399025</v>
+        <v>129.3682389399028</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199747</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,13 +22831,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.08171901666381</v>
+        <v>77.0817190166639</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T5" t="n">
-        <v>48.27134388011237</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
         <v>251.1692605650303</v>
@@ -22849,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>182.2055135121492</v>
+        <v>204.5585635023749</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897341</v>
       </c>
     </row>
     <row r="6">
@@ -22862,19 +22862,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>93.85742821378247</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.1637893657753</v>
@@ -22883,10 +22883,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>58.9045589040915</v>
+        <v>58.90455890409152</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265842</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.43289562846321</v>
+        <v>72.43289562846324</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22919,7 +22919,7 @@
         <v>195.4095977920013</v>
       </c>
       <c r="U6" t="n">
-        <v>38.33818124377109</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22928,10 +22928,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>118.0338112344784</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098484</v>
       </c>
     </row>
     <row r="7">
@@ -22965,10 +22965,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>57.06999962825419</v>
+        <v>57.06999962825422</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402855</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,10 +22983,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>18.10760906709393</v>
       </c>
       <c r="Q7" t="n">
-        <v>34.57770336425686</v>
+        <v>68.6860405515973</v>
       </c>
       <c r="R7" t="n">
         <v>132.8223696106904</v>
@@ -23007,7 +23007,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>173.4937091346031</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>211.1087045153686</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23035,13 +23035,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.097833230058</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>316.8938261062223</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>8.630724984277478</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,22 +23074,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>213.4438810562068</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1692605650303</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>161.7153815510933</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>182.2055135121493</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23099,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>125.1152275730337</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>58.9045589040915</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.922779328427186</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.43289562846321</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>195.4095977920013</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8637684100909</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>18.24739803715772</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>18.15710861098461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23181,31 +23181,31 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>135.5663557888597</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0019352027142</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>153.4336708318196</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708667</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>57.06999962825419</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402855</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709389</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.68604055159727</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>154.5643095410619</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>223.7196734901001</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>168.0688818921495</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>349.8910368433326</v>
       </c>
     </row>
     <row r="12">
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>107.7439527351641</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>56.82230522778887</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23469,13 +23469,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23497,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>134.5760089460817</v>
+        <v>55.45222167450652</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>34.98324540096728</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,19 +23703,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>107.0248262810005</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>53.35974539096586</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>12.61781114219429</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>58.34628052367275</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>91.87369334916323</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,19 +23977,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>187.6925772204828</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>260.1736634053437</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>161.2670937523062</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>137.1238099094098</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>312.8156244352832</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>120.0817452052321</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24420,16 +24420,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>204.7509947629275</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>181.1251564493168</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -24502,7 +24502,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>294.3692147095461</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>94.15744254776807</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24666,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>139.1463142409816</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24691,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>390.5277909978263</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>70.15015910042821</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>175.8538397776871</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24925,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>92.83950704429088</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>126.4919521192243</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>1.772586778758495</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>197.6259927259851</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>88.40752233460734</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,13 +25162,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -25207,19 +25207,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>90.81180805757329</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>107.7439527351652</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>11.68732481001896</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>88.97131881835151</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25450,10 +25450,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>222.7020862222412</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>94.15744254776865</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25608,16 +25608,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>26.60896670133658</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>86.93565616285781</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>181.1251564493163</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,13 +25684,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>118.1216260491474</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>53.58580427589349</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -25848,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,13 +25873,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>66.40041231066539</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>36.78530491553744</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -26079,13 +26079,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>204.7509947629281</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>119.8601725377269</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>424931.0936061951</v>
+        <v>424931.0936061949</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>424931.0936061952</v>
+        <v>424931.0936061949</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>424931.0936061951</v>
+        <v>658545.8706526516</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903113</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>839054.4922903117</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>839054.4922903117</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903113</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903117</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>839054.4922903114</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
   </sheetData>
@@ -26319,22 +26319,22 @@
         <v>158307.6623238765</v>
       </c>
       <c r="D2" t="n">
-        <v>158307.6623238765</v>
+        <v>245340.6184784387</v>
       </c>
       <c r="E2" t="n">
-        <v>312588.928500312</v>
+        <v>312588.9285003119</v>
       </c>
       <c r="F2" t="n">
-        <v>312588.9285003119</v>
+        <v>312588.9285003116</v>
       </c>
       <c r="G2" t="n">
+        <v>312588.9285003117</v>
+      </c>
+      <c r="H2" t="n">
+        <v>312588.9285003116</v>
+      </c>
+      <c r="I2" t="n">
         <v>312588.9285003118</v>
-      </c>
-      <c r="H2" t="n">
-        <v>312588.9285003119</v>
-      </c>
-      <c r="I2" t="n">
-        <v>312588.9285003117</v>
       </c>
       <c r="J2" t="n">
         <v>312588.9285003119</v>
@@ -26343,19 +26343,19 @@
         <v>312588.9285003117</v>
       </c>
       <c r="L2" t="n">
-        <v>312588.9285003116</v>
+        <v>312588.9285003118</v>
       </c>
       <c r="M2" t="n">
+        <v>312588.9285003119</v>
+      </c>
+      <c r="N2" t="n">
         <v>312588.9285003118</v>
       </c>
-      <c r="N2" t="n">
-        <v>312588.9285003116</v>
-      </c>
       <c r="O2" t="n">
-        <v>312588.9285003118</v>
+        <v>312588.9285003119</v>
       </c>
       <c r="P2" t="n">
-        <v>312588.9285003118</v>
+        <v>312588.9285003119</v>
       </c>
     </row>
     <row r="3">
@@ -26365,46 +26365,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208453</v>
+        <v>591356.9025208449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>371558.5249487665</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336681</v>
+        <v>276030.7457669103</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.9447285445</v>
+        <v>49064.94472854453</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>89743.37813127038</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678774</v>
+        <v>72091.35261608622</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.8001180723339</v>
+        <v>137.8001180723338</v>
       </c>
       <c r="C4" t="n">
-        <v>137.8001180723339</v>
+        <v>137.8001180723338</v>
       </c>
       <c r="D4" t="n">
-        <v>137.8001180723339</v>
+        <v>384.3219252469136</v>
       </c>
       <c r="E4" t="n">
         <v>584.6469890061234</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061228</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="H4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="I4" t="n">
         <v>584.6469890061231</v>
       </c>
       <c r="J4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="K4" t="n">
         <v>584.6469890061231</v>
       </c>
       <c r="L4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="M4" t="n">
         <v>584.6469890061231</v>
@@ -26456,10 +26456,10 @@
         <v>584.6469890061231</v>
       </c>
       <c r="O4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061232</v>
       </c>
       <c r="P4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061234</v>
       </c>
     </row>
     <row r="5">
@@ -26469,34 +26469,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161354</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161353</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161356</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
         <v>74306.34056139328</v>
@@ -26505,13 +26505,13 @@
         <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139331</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-490172.8407266546</v>
+        <v>-502366.9027456889</v>
       </c>
       <c r="C6" t="n">
-        <v>101184.0617941906</v>
+        <v>88989.99977515594</v>
       </c>
       <c r="D6" t="n">
-        <v>101184.0617941906</v>
+        <v>-219414.6903676099</v>
       </c>
       <c r="E6" t="n">
-        <v>-389436.7026837555</v>
+        <v>-42406.80019516739</v>
       </c>
       <c r="F6" t="n">
-        <v>237697.9409499125</v>
+        <v>233623.9455717431</v>
       </c>
       <c r="G6" t="n">
-        <v>237697.9409499125</v>
+        <v>233623.9455717425</v>
       </c>
       <c r="H6" t="n">
-        <v>237697.9409499125</v>
+        <v>233623.9455717426</v>
       </c>
       <c r="I6" t="n">
-        <v>237697.9409499123</v>
+        <v>233623.9455717426</v>
       </c>
       <c r="J6" t="n">
-        <v>188632.9962213679</v>
+        <v>184559.0008431983</v>
       </c>
       <c r="K6" t="n">
-        <v>237697.9409499123</v>
+        <v>233623.9455717426</v>
       </c>
       <c r="L6" t="n">
-        <v>237697.9409499122</v>
+        <v>143880.5674404724</v>
       </c>
       <c r="M6" t="n">
-        <v>77241.49908203496</v>
+        <v>161532.5929556566</v>
       </c>
       <c r="N6" t="n">
-        <v>237697.9409499121</v>
+        <v>233623.9455717427</v>
       </c>
       <c r="O6" t="n">
-        <v>237697.9409499124</v>
+        <v>233623.9455717426</v>
       </c>
       <c r="P6" t="n">
-        <v>237697.9409499125</v>
+        <v>233623.9455717429</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129045</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26776,10 +26776,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26789,34 +26789,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663198</v>
+        <v>542.1149567261631</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022925</v>
@@ -26825,13 +26825,13 @@
         <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>305.2407236247799</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803941</v>
+        <v>236.0660360556144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>354.5893695598436</v>
       </c>
       <c r="E4" t="n">
-        <v>643.875868235973</v>
+        <v>289.2864986761297</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663195</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>354.5893695598436</v>
       </c>
       <c r="M4" t="n">
-        <v>643.875868235973</v>
+        <v>289.2864986761297</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>354.5893695598436</v>
       </c>
       <c r="M4" t="n">
-        <v>643.875868235973</v>
+        <v>289.2864986761297</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622679</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31126,43 +31126,43 @@
         <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
         <v>306.8275379829652</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550074</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820368</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639161</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M4" t="n">
         <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647909</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672891</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O5" t="n">
-        <v>371.5015668622679</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31363,43 +31363,43 @@
         <v>11.39368688575675</v>
       </c>
       <c r="I6" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628872</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q6" t="n">
         <v>150.5912184936714</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550074</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S6" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820368</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639161</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K7" t="n">
         <v>114.9089482765068</v>
       </c>
       <c r="L7" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M7" t="n">
         <v>155.0371670682165</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P7" t="n">
         <v>119.6203949820537</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647909</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S7" t="n">
         <v>17.23634224147602</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077001</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954484</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043117</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655543</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528638</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672891</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470272</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470023</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>371.5015668622679</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244294</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151092</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974683</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619221</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924577</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435304</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575675</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>40.6178210959085</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340083</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621736</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405032</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975329</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829653</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292673</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628872</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936714</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550074</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>21.9129264128882</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820368</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445817</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620014</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639161</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114192</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765068</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>147.043892027699</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682165</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604414</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592433</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820537</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784857</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>44.47102176647909</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147602</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181394</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953981</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953991</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33028,10 +33028,10 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353162</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233475</v>
@@ -33265,13 +33265,13 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837925</v>
@@ -33517,10 +33517,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33742,7 +33742,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34131,40 +34131,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T41" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34283,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002919</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868023</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915984</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996318</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848228</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855691</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646075</v>
+        <v>12.15921574646066</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061149</v>
+        <v>16.11138312061144</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520823</v>
+        <v>23.66518529520815</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400495</v>
+        <v>1.340357307400438</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868023</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973019</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405811</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656915984</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L6" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N6" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848228</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855691</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646075</v>
+        <v>12.15921574646066</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061149</v>
+        <v>16.11138312061144</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520823</v>
+        <v>23.66518529520815</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400495</v>
+        <v>1.340357307400438</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868023</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788327</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>112.1840179973019</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197545</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504114</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405811</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>85.83499656915984</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.7991677406597</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781463</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>117.596605360629</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755146</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>175.485825899632</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848228</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855691</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764993</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>12.15921574646075</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061149</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520823</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400495</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687118</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K16" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M16" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O16" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K19" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M19" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O19" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687128</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K22" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L22" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M22" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O22" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609572</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013292</v>
@@ -36913,13 +36913,13 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004592</v>
@@ -37165,10 +37165,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K43" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L43" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M43" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N43" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O43" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P43" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859617</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K46" t="n">
-        <v>99.30389319966699</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L46" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M46" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N46" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O46" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>515726.6621658591</v>
+        <v>565488.6672442006</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8088944.869226762</v>
+        <v>8547013.05951393</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8722880.896883903</v>
+        <v>8506890.903312845</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>165.1725371760942</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>165.1725371760946</v>
       </c>
     </row>
     <row r="3">
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>165.1725371760943</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663196</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663196</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663196</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>92.73964154763148</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>52.21594625443453</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>52.21594625443403</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="F5" t="n">
-        <v>187.5255871663195</v>
+        <v>187.52558716632</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H5" t="n">
-        <v>187.5255871663195</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>165.1725371760942</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>187.5255871663195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -992,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>4.724103750052254</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>87.73917396899907</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y6" t="n">
-        <v>187.5255871663195</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="7">
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>52.21594625443404</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>171.6251371481119</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1217,22 +1217,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>22.32983799160504</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>165.1725371760946</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>31.68046530976816</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
     </row>
     <row r="11">
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>208.1941766271353</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292592</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1432,13 +1432,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>36.34690181272098</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414557</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>53.54735467376891</v>
       </c>
       <c r="H13" t="n">
-        <v>87.93270968653191</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>309.820670096501</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>161.5232781970771</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247746</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1767,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>179.1870119246124</v>
+        <v>72.08802744677315</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>28.95911863073169</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>16.73455954182693</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247813</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2004,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>127.675255927006</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>72.08802744677315</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>219.1834685212287</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>33.24177743937208</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851187</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>87.62154955555381</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>115.0138334144182</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2323,13 +2323,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>41.86741718539974</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>57.92518451681089</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>72.08802744677259</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>135.8126782397848</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2557,13 +2557,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,7 +2572,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,10 +2614,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>33.3830437605888</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>213.8614881801116</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>92.47761555491205</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>58.28185552386351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2803,16 +2803,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>16.34825474388511</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>240.2451530332447</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -3009,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>76.2838035461409</v>
+        <v>238.1138357058008</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3037,13 +3037,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>289.0908630279709</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3085,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>17.35112070699578</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3246,16 +3246,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>54.51165059784287</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>47.3866485609005</v>
       </c>
     </row>
     <row r="35">
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>294.3263193288732</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>99.50249420969799</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>133.7337232129123</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>93.35882079148004</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3514,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>177.6065387483027</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>126.5388824951718</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3675,10 +3675,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>93.35882079147999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>225.5286766224914</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3742,25 +3742,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>267.7473854578251</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>273.7915595514672</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3802,13 +3802,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>91.83524374703775</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>120.8277663310641</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3982,22 +3982,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>315.5299577615964</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>77.42639794035698</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4137,22 +4137,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>123.0092767027073</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4197,10 +4197,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>166.6628257988641</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>560.682563648794</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="C2" t="n">
-        <v>560.682563648794</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D2" t="n">
-        <v>560.682563648794</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E2" t="n">
-        <v>371.2627786323095</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F2" t="n">
-        <v>371.2627786323095</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G2" t="n">
-        <v>181.842993615825</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123825</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985575</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020256</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652786</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652786</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652786</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652786</v>
+        <v>750.10234866528</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652786</v>
+        <v>750.10234866528</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652786</v>
+        <v>750.10234866528</v>
       </c>
       <c r="W2" t="n">
-        <v>560.682563648794</v>
+        <v>750.10234866528</v>
       </c>
       <c r="X2" t="n">
-        <v>560.682563648794</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.682563648794</v>
+        <v>393.8416170062753</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024202</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772646</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.769091114024</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546593</v>
+        <v>512.5000587546602</v>
       </c>
       <c r="O3" t="n">
-        <v>649.210157847634</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017052</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652786</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652786</v>
+        <v>676.9378076264284</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652786</v>
+        <v>676.9378076264284</v>
       </c>
       <c r="T3" t="n">
-        <v>583.2614020227591</v>
+        <v>676.9378076264284</v>
       </c>
       <c r="U3" t="n">
-        <v>393.8416170062745</v>
+        <v>487.5180226099435</v>
       </c>
       <c r="V3" t="n">
-        <v>204.4218319897901</v>
+        <v>298.0982375934586</v>
       </c>
       <c r="W3" t="n">
-        <v>15.00204697330557</v>
+        <v>108.6784525769738</v>
       </c>
       <c r="X3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230162</v>
+        <v>27.03967056230179</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170694</v>
+        <v>42.98993985170723</v>
       </c>
       <c r="N4" t="n">
-        <v>66.418473293963</v>
+        <v>66.41847329396343</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828944</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828944</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="U4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>393.8416170062743</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="C5" t="n">
-        <v>393.8416170062743</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="D5" t="n">
-        <v>393.8416170062743</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="E5" t="n">
-        <v>393.8416170062743</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="F5" t="n">
-        <v>204.42183198979</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="G5" t="n">
-        <v>204.42183198979</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H5" t="n">
-        <v>15.00204697330556</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330556</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678535</v>
       </c>
       <c r="K5" t="n">
-        <v>80.8121315905891</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079181</v>
+        <v>191.8743094079189</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644749</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123821</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O5" t="n">
-        <v>649.484525998557</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020252</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652781</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R5" t="n">
-        <v>750.1023486652781</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S5" t="n">
-        <v>750.1023486652781</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T5" t="n">
-        <v>750.1023486652781</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="U5" t="n">
-        <v>750.1023486652781</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="V5" t="n">
-        <v>750.1023486652781</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="W5" t="n">
-        <v>750.1023486652781</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="X5" t="n">
-        <v>583.2614020227587</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="Y5" t="n">
-        <v>393.8416170062743</v>
+        <v>560.6825636487949</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>320.7740599518761</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="C6" t="n">
-        <v>320.7740599518761</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="D6" t="n">
-        <v>320.7740599518761</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="E6" t="n">
-        <v>161.5366049464206</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="F6" t="n">
-        <v>15.00204697330556</v>
+        <v>35.30843564271029</v>
       </c>
       <c r="G6" t="n">
-        <v>15.00204697330556</v>
+        <v>35.30843564271029</v>
       </c>
       <c r="H6" t="n">
-        <v>15.00204697330556</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="I6" t="n">
-        <v>15.00204697330556</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330556</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024196</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772646</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140239</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546594</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476339</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017051</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652784</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652784</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S6" t="n">
-        <v>598.8192732198747</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T6" t="n">
-        <v>598.8192732198747</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U6" t="n">
-        <v>598.8192732198747</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="V6" t="n">
-        <v>598.8192732198747</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="W6" t="n">
-        <v>598.8192732198747</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="X6" t="n">
-        <v>510.1938449683605</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="Y6" t="n">
-        <v>320.7740599518761</v>
+        <v>181.8429936158253</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.00204697330556</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C7" t="n">
-        <v>15.00204697330556</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D7" t="n">
-        <v>15.00204697330556</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E7" t="n">
-        <v>15.00204697330556</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F7" t="n">
-        <v>15.00204697330556</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G7" t="n">
-        <v>15.00204697330556</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H7" t="n">
-        <v>15.00204697330556</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I7" t="n">
-        <v>15.00204697330556</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330556</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K7" t="n">
-        <v>15.00204697330556</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230162</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170694</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N7" t="n">
-        <v>66.418473293963</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P7" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R7" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S7" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T7" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U7" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V7" t="n">
-        <v>67.74542702828944</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W7" t="n">
-        <v>67.74542702828944</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X7" t="n">
-        <v>15.00204697330556</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.00204697330556</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>845.7541926763687</v>
+        <v>583.26140202276</v>
       </c>
       <c r="C8" t="n">
-        <v>845.7541926763687</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="D8" t="n">
-        <v>845.7541926763687</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="E8" t="n">
-        <v>845.7541926763687</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="F8" t="n">
-        <v>845.7541926763687</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G8" t="n">
-        <v>429.7231473797759</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809305</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>21.03371160678498</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>80.81213159058947</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711865</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172446</v>
+        <v>734.4611726020265</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904652</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904652</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642783</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T8" t="n">
-        <v>2036.325171642783</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="U8" t="n">
-        <v>1782.718007305293</v>
+        <v>583.26140202276</v>
       </c>
       <c r="V8" t="n">
-        <v>1782.718007305293</v>
+        <v>583.26140202276</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.718007305293</v>
+        <v>583.26140202276</v>
       </c>
       <c r="X8" t="n">
-        <v>1409.252249044213</v>
+        <v>583.26140202276</v>
       </c>
       <c r="Y8" t="n">
-        <v>1019.112917068401</v>
+        <v>583.26140202276</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>494.1595330380378</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C9" t="n">
-        <v>494.1595330380378</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D9" t="n">
-        <v>471.6041411273256</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E9" t="n">
-        <v>312.3666861218701</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3666861218701</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G9" t="n">
-        <v>175.490692336986</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581917</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809305</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333487</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S9" t="n">
-        <v>1627.262386835205</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T9" t="n">
-        <v>1627.262386835205</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="U9" t="n">
-        <v>1399.160796968469</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="V9" t="n">
-        <v>1164.008688736726</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="W9" t="n">
-        <v>909.7713320085245</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="X9" t="n">
-        <v>701.9198318029917</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y9" t="n">
-        <v>494.1595330380378</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.2893470405991</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C10" t="n">
-        <v>488.2888770307322</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D10" t="n">
-        <v>338.1722376183965</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2591440360034</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809305</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809305</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809305</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809305</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809305</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.2893470405991</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1661.795585684488</v>
+        <v>1771.429619686767</v>
       </c>
       <c r="C11" t="n">
-        <v>1292.833068744076</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="D11" t="n">
-        <v>934.5673701373257</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E11" t="n">
-        <v>934.5673701373257</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F11" t="n">
-        <v>523.5814653477182</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
@@ -5047,7 +5047,7 @@
         <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
@@ -5068,25 +5068,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450754</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180639</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.50962791956</v>
+        <v>2161.568951662579</v>
       </c>
       <c r="Y11" t="n">
-        <v>1661.795585684488</v>
+        <v>1771.429619686767</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5147,19 +5147,19 @@
         <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>155.3330353074682</v>
+        <v>120.6003534763944</v>
       </c>
       <c r="C13" t="n">
-        <v>155.3330353074682</v>
+        <v>120.6003534763944</v>
       </c>
       <c r="D13" t="n">
-        <v>155.3330353074682</v>
+        <v>120.6003534763944</v>
       </c>
       <c r="E13" t="n">
-        <v>155.3330353074682</v>
+        <v>120.6003534763944</v>
       </c>
       <c r="F13" t="n">
-        <v>155.3330353074682</v>
+        <v>120.6003534763944</v>
       </c>
       <c r="G13" t="n">
-        <v>155.3330353074682</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
         <v>66.51211643218342</v>
@@ -5235,16 +5235,16 @@
         <v>410.0175235133551</v>
       </c>
       <c r="V13" t="n">
-        <v>155.3330353074682</v>
+        <v>410.0175235133551</v>
       </c>
       <c r="W13" t="n">
-        <v>155.3330353074682</v>
+        <v>120.6003534763944</v>
       </c>
       <c r="X13" t="n">
-        <v>155.3330353074682</v>
+        <v>120.6003534763944</v>
       </c>
       <c r="Y13" t="n">
-        <v>155.3330353074682</v>
+        <v>120.6003534763944</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1878.169188758593</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C14" t="n">
-        <v>1565.219016943946</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D14" t="n">
-        <v>1206.953318337195</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E14" t="n">
-        <v>821.1650657389512</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389512</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839476</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
         <v>589.2106210810555</v>
@@ -5287,43 +5287,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.60582160917</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V14" t="n">
-        <v>2994.542934265599</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W14" t="n">
-        <v>2641.774278995485</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X14" t="n">
-        <v>2268.308520734405</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y14" t="n">
-        <v>1878.169188758593</v>
+        <v>2019.11122819185</v>
       </c>
     </row>
     <row r="15">
@@ -5333,70 +5333,70 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>360.6423967967187</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C16" t="n">
-        <v>360.6423967967187</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D16" t="n">
-        <v>360.6423967967187</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E16" t="n">
-        <v>212.7293032143256</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F16" t="n">
-        <v>212.7293032143256</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G16" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962282</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068849</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R16" t="n">
-        <v>831.0565485757121</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S16" t="n">
-        <v>831.0565485757121</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T16" t="n">
-        <v>831.0565485757121</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U16" t="n">
-        <v>650.0595668336794</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="V16" t="n">
-        <v>650.0595668336794</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="W16" t="n">
-        <v>360.6423967967187</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="X16" t="n">
-        <v>360.6423967967187</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y16" t="n">
-        <v>360.6423967967187</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1506.36381994936</v>
+        <v>1594.601034732593</v>
       </c>
       <c r="C17" t="n">
-        <v>1137.401303008948</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D17" t="n">
-        <v>779.1356044021975</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E17" t="n">
-        <v>393.3473518039532</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F17" t="n">
-        <v>393.3473518039532</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>393.3473518039532</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H17" t="n">
-        <v>95.76375141272047</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I17" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U17" t="n">
-        <v>3009.337405520487</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V17" t="n">
-        <v>3009.337405520487</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W17" t="n">
-        <v>2656.568750250373</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X17" t="n">
-        <v>2283.102991989293</v>
+        <v>2371.340206772526</v>
       </c>
       <c r="Y17" t="n">
-        <v>1892.963660013481</v>
+        <v>1981.200874796715</v>
       </c>
     </row>
     <row r="18">
@@ -5570,70 +5570,70 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I18" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U18" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>213.4020639300938</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C19" t="n">
-        <v>213.4020639300938</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D19" t="n">
-        <v>213.4020639300938</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E19" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F19" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G19" t="n">
         <v>66.5121164321834</v>
@@ -5673,52 +5673,52 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962283</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068853</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R19" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S19" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T19" t="n">
-        <v>791.9221008414108</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U19" t="n">
-        <v>502.8192339670544</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="V19" t="n">
-        <v>502.8192339670544</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="W19" t="n">
-        <v>213.4020639300938</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="X19" t="n">
-        <v>213.4020639300938</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.4020639300938</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1698.509627919559</v>
+        <v>1278.332234886374</v>
       </c>
       <c r="C20" t="n">
-        <v>1329.547110979147</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="D20" t="n">
-        <v>971.2814123723965</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E20" t="n">
-        <v>585.4931597741522</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F20" t="n">
-        <v>364.0957168234162</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G20" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I20" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912091</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296685</v>
@@ -5797,7 +5797,7 @@
         <v>1698.509627919559</v>
       </c>
       <c r="Y20" t="n">
-        <v>1698.509627919559</v>
+        <v>1664.932074950496</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I21" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.5121164321834</v>
+        <v>155.018732144864</v>
       </c>
       <c r="C22" t="n">
-        <v>66.5121164321834</v>
+        <v>155.018732144864</v>
       </c>
       <c r="D22" t="n">
-        <v>66.5121164321834</v>
+        <v>155.018732144864</v>
       </c>
       <c r="E22" t="n">
-        <v>66.5121164321834</v>
+        <v>155.018732144864</v>
       </c>
       <c r="F22" t="n">
-        <v>66.5121164321834</v>
+        <v>155.018732144864</v>
       </c>
       <c r="G22" t="n">
         <v>66.5121164321834</v>
@@ -5910,52 +5910,52 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962283</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L22" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O22" t="n">
-        <v>809.0152357068853</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R22" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S22" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T22" t="n">
-        <v>920.8870058181845</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="U22" t="n">
-        <v>920.8870058181845</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="V22" t="n">
-        <v>804.7114165106914</v>
+        <v>444.4359021818246</v>
       </c>
       <c r="W22" t="n">
-        <v>515.2942464737308</v>
+        <v>155.018732144864</v>
       </c>
       <c r="X22" t="n">
-        <v>287.3046955757135</v>
+        <v>155.018732144864</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.5121164321834</v>
+        <v>155.018732144864</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1274.539111149739</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C23" t="n">
-        <v>905.5765942093278</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D23" t="n">
-        <v>863.2862738200351</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E23" t="n">
-        <v>477.498021221791</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F23" t="n">
         <v>66.5121164321834</v>
@@ -5989,25 +5989,25 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052368</v>
@@ -6016,25 +6016,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520487</v>
+        <v>3267.095534218452</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794324</v>
+        <v>3013.565057492288</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450753</v>
+        <v>2682.502170148718</v>
       </c>
       <c r="W23" t="n">
-        <v>2424.744041450753</v>
+        <v>2329.733514878603</v>
       </c>
       <c r="X23" t="n">
-        <v>2051.278283189673</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y23" t="n">
-        <v>1661.138951213861</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="24">
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>848.0708164780106</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C25" t="n">
-        <v>679.1346335501037</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D25" t="n">
         <v>529.0179941377679</v>
@@ -6180,19 +6180,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U25" t="n">
-        <v>920.8870058181849</v>
+        <v>783.7024823436548</v>
       </c>
       <c r="V25" t="n">
-        <v>920.8870058181849</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="W25" t="n">
-        <v>920.8870058181849</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="X25" t="n">
-        <v>920.8870058181849</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="Y25" t="n">
-        <v>920.8870058181849</v>
+        <v>529.0179941377679</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1678.62132134232</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C26" t="n">
-        <v>1678.62132134232</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D26" t="n">
-        <v>1320.35562273557</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E26" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F26" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G26" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
         <v>108.5090151927147</v>
@@ -6226,16 +6226,16 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060171</v>
@@ -6253,25 +6253,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V26" t="n">
-        <v>3181.594906913448</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W26" t="n">
-        <v>2828.826251643334</v>
+        <v>3109.584116376734</v>
       </c>
       <c r="X26" t="n">
-        <v>2455.360493382254</v>
+        <v>2736.118358115654</v>
       </c>
       <c r="Y26" t="n">
-        <v>2065.221161406442</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="27">
@@ -6311,7 +6311,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>680.3679798527295</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="C28" t="n">
-        <v>511.4317969248226</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D28" t="n">
-        <v>361.3151575124868</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E28" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F28" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G28" t="n">
         <v>66.5121164321834</v>
@@ -6411,25 +6411,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S28" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T28" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U28" t="n">
-        <v>920.8870058181849</v>
+        <v>635.7893887612616</v>
       </c>
       <c r="V28" t="n">
-        <v>920.8870058181849</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="W28" t="n">
-        <v>920.8870058181849</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="X28" t="n">
-        <v>920.8870058181849</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="Y28" t="n">
-        <v>862.0164446829692</v>
+        <v>381.1049005553748</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1238.038871968308</v>
+        <v>1422.200456328342</v>
       </c>
       <c r="C29" t="n">
-        <v>869.0763550278964</v>
+        <v>1053.23793938793</v>
       </c>
       <c r="D29" t="n">
-        <v>510.8106564211459</v>
+        <v>694.9722407811798</v>
       </c>
       <c r="E29" t="n">
-        <v>125.0224038229017</v>
+        <v>309.1839881829356</v>
       </c>
       <c r="F29" t="n">
-        <v>108.5090151927147</v>
+        <v>309.1839881829356</v>
       </c>
       <c r="G29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
         <v>66.5121164321834</v>
@@ -6466,7 +6466,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6493,22 +6493,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U29" t="n">
-        <v>3072.075344883006</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V29" t="n">
-        <v>2741.012457539436</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W29" t="n">
-        <v>2388.243802269321</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X29" t="n">
-        <v>2014.778044008242</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y29" t="n">
-        <v>1624.63871203243</v>
+        <v>1808.800296392464</v>
       </c>
     </row>
     <row r="30">
@@ -6542,13 +6542,13 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>213.4020639300938</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C31" t="n">
-        <v>213.4020639300938</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D31" t="n">
-        <v>213.4020639300938</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E31" t="n">
         <v>213.4020639300938</v>
@@ -6657,16 +6657,16 @@
         <v>920.8870058181849</v>
       </c>
       <c r="V31" t="n">
-        <v>843.8326588018809</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="W31" t="n">
-        <v>843.8326588018809</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="X31" t="n">
-        <v>615.8431079038636</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y31" t="n">
-        <v>395.0505287603335</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1127.748203495403</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C32" t="n">
-        <v>758.7856865549913</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D32" t="n">
-        <v>400.5199879482408</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E32" t="n">
-        <v>108.5090151927147</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F32" t="n">
-        <v>108.5090151927147</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G32" t="n">
         <v>108.5090151927147</v>
@@ -6697,13 +6697,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329465</v>
@@ -6712,40 +6712,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>2961.784676410101</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V32" t="n">
-        <v>2630.721789066531</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W32" t="n">
-        <v>2277.953133796416</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X32" t="n">
-        <v>1904.487375535336</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y32" t="n">
-        <v>1514.348043559525</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6785,40 +6785,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U33" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X33" t="n">
         <v>1317.519490266131</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K34" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L34" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M34" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N34" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O34" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P34" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q34" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R34" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S34" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T34" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U34" t="n">
-        <v>631.7841389438285</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V34" t="n">
-        <v>576.721865612674</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="W34" t="n">
-        <v>287.3046955757135</v>
+        <v>342.366968906868</v>
       </c>
       <c r="X34" t="n">
-        <v>287.3046955757135</v>
+        <v>114.3774180088506</v>
       </c>
       <c r="Y34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1590.514489367197</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C35" t="n">
-        <v>1221.551972426786</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="D35" t="n">
-        <v>863.2862738200351</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E35" t="n">
-        <v>477.498021221791</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F35" t="n">
         <v>66.5121164321834</v>
@@ -6967,22 +6967,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U35" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V35" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W35" t="n">
-        <v>2277.953133796416</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X35" t="n">
-        <v>2277.953133796416</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y35" t="n">
-        <v>1887.813801820605</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="36">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>518.445961844415</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="C37" t="n">
-        <v>349.5097789165081</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D37" t="n">
-        <v>349.5097789165081</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E37" t="n">
-        <v>201.596685334115</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F37" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G37" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H37" t="n">
         <v>66.5121164321834</v>
@@ -7128,19 +7128,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U37" t="n">
-        <v>920.8870058181849</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="V37" t="n">
-        <v>920.8870058181849</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="W37" t="n">
-        <v>920.8870058181849</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="X37" t="n">
-        <v>920.8870058181849</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="Y37" t="n">
-        <v>700.0944266746548</v>
+        <v>826.5851666348717</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2047.583838282732</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C38" t="n">
-        <v>1678.62132134232</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D38" t="n">
-        <v>1320.35562273557</v>
+        <v>971.2814123723965</v>
       </c>
       <c r="E38" t="n">
-        <v>934.5673701373257</v>
+        <v>585.4931597741522</v>
       </c>
       <c r="F38" t="n">
-        <v>523.5814653477182</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G38" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W38" t="n">
-        <v>3197.788768583745</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X38" t="n">
-        <v>2824.323010322666</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y38" t="n">
-        <v>2434.183678346854</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="39">
@@ -7244,16 +7244,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>511.4317969248226</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="C40" t="n">
-        <v>511.4317969248226</v>
+        <v>751.950822890278</v>
       </c>
       <c r="D40" t="n">
-        <v>361.3151575124869</v>
+        <v>601.8341834779422</v>
       </c>
       <c r="E40" t="n">
-        <v>213.4020639300938</v>
+        <v>453.9210898955491</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218343</v>
+        <v>307.0311423976387</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K40" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L40" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M40" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N40" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O40" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P40" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q40" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R40" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S40" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T40" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U40" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V40" t="n">
-        <v>693.0802617550623</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W40" t="n">
-        <v>693.0802617550623</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X40" t="n">
-        <v>693.0802617550623</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y40" t="n">
-        <v>693.0802617550623</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1590.807527238424</v>
+        <v>1795.666214589422</v>
       </c>
       <c r="C41" t="n">
-        <v>1590.807527238424</v>
+        <v>1426.70369764901</v>
       </c>
       <c r="D41" t="n">
-        <v>1320.35562273557</v>
+        <v>1068.43799904226</v>
       </c>
       <c r="E41" t="n">
-        <v>934.5673701373257</v>
+        <v>682.6497464440154</v>
       </c>
       <c r="F41" t="n">
-        <v>523.5814653477182</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H41" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7432,31 +7432,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U41" t="n">
-        <v>3072.075344883008</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V41" t="n">
-        <v>2741.012457539437</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W41" t="n">
-        <v>2741.012457539437</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X41" t="n">
-        <v>2367.546699278357</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y41" t="n">
-        <v>1977.407367302545</v>
+        <v>2182.266054653544</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>478.3278112441814</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="C43" t="n">
-        <v>309.3916283162745</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="D43" t="n">
-        <v>159.2749889039387</v>
+        <v>481.6674995314927</v>
       </c>
       <c r="E43" t="n">
-        <v>159.2749889039387</v>
+        <v>481.6674995314927</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218343</v>
+        <v>334.7775520335823</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L43" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O43" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R43" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S43" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T43" t="n">
-        <v>699.1203903877115</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U43" t="n">
-        <v>699.1203903877115</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V43" t="n">
-        <v>699.1203903877115</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W43" t="n">
-        <v>699.1203903877115</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="X43" t="n">
-        <v>699.1203903877115</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="Y43" t="n">
-        <v>478.3278112441814</v>
+        <v>631.7841389438285</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1565.440264581602</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C44" t="n">
-        <v>1196.47774764119</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D44" t="n">
-        <v>838.2120490344398</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E44" t="n">
-        <v>519.4949199823222</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F44" t="n">
-        <v>108.5090151927147</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H44" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U44" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V44" t="n">
-        <v>2678.274518176918</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W44" t="n">
-        <v>2325.505862906803</v>
+        <v>3137.106670368228</v>
       </c>
       <c r="X44" t="n">
-        <v>1952.040104645724</v>
+        <v>2763.640912107148</v>
       </c>
       <c r="Y44" t="n">
-        <v>1952.040104645724</v>
+        <v>2373.501580131336</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
         <v>2407.411984886741</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.4482993600903</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="C46" t="n">
-        <v>66.51211643218343</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="D46" t="n">
-        <v>66.51211643218343</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218343</v>
+        <v>483.8710453614353</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218343</v>
+        <v>336.981097863525</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K46" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L46" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O46" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R46" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S46" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T46" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U46" t="n">
-        <v>631.784138943829</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V46" t="n">
-        <v>631.784138943829</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W46" t="n">
-        <v>463.4378502581077</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="X46" t="n">
-        <v>235.4482993600903</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="Y46" t="n">
-        <v>235.4482993600903</v>
+        <v>631.7841389438285</v>
       </c>
     </row>
   </sheetData>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971606</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046875</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059421</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637384</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
-        <v>151.7212889301281</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,10 +22594,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.0817190166639</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900532</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -22609,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510934</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>182.205513512149</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>221.065401479959</v>
       </c>
     </row>
     <row r="3">
@@ -22646,10 +22646,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409152</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265846</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846324</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>30.23706061590696</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377129</v>
+        <v>38.33818124377092</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310563</v>
+        <v>45.27499998310526</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459997</v>
+        <v>64.1693959945996</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>113.033343655846</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22728,10 +22728,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825422</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402859</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,22 +22746,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709393</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.6860405515973</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>154.5643095410617</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>234.0491352390163</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22792,19 +22792,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>216.7578328961673</v>
       </c>
       <c r="F5" t="n">
-        <v>219.3504585753919</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G5" t="n">
-        <v>413.097833230058</v>
+        <v>225.5722460637381</v>
       </c>
       <c r="H5" t="n">
-        <v>129.3682389399028</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199748</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,13 +22831,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.0817190166639</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900532</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988683</v>
       </c>
       <c r="U5" t="n">
         <v>251.1692605650303</v>
@@ -22849,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>204.5585635023749</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>198.7123514897341</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22871,7 +22871,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -22880,13 +22880,13 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>96.11765360068746</v>
       </c>
       <c r="I6" t="n">
-        <v>58.90455890409152</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265846</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,10 +22910,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.43289562846324</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
         <v>195.4095977920013</v>
@@ -22922,16 +22922,16 @@
         <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310532</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>118.0338112344784</v>
+        <v>18.24739803715752</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.15710861098484</v>
+        <v>18.15710861098441</v>
       </c>
     </row>
     <row r="7">
@@ -22965,10 +22965,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>57.06999962825422</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402859</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,10 +22983,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709393</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.6860405515973</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R7" t="n">
         <v>132.8223696106904</v>
@@ -23001,13 +23001,13 @@
         <v>286.2650814934503</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>199.9216970693936</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>173.4937091346031</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>211.1087045153686</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046876</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>167.157454454363</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>85.99672338893581</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23086,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23105,25 +23105,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>125.1152275730337</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>7.884010625681327</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>60.69123123399635</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>45.27499998310535</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>18.24739803715755</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23181,31 +23181,31 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>135.5663557888597</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23247,7 +23247,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>166.3687070976604</v>
       </c>
     </row>
     <row r="11">
@@ -23260,22 +23260,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>157.0787151438723</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>349.8910368433326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23430,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>112.4784535852593</v>
       </c>
       <c r="H13" t="n">
-        <v>56.82230522778887</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>55.45222167450652</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>224.7146604589765</v>
       </c>
     </row>
     <row r="15">
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -23709,13 +23709,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>107.0248262810005</v>
+        <v>214.1238107588397</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23746,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>12.61781114219429</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>352.9965411366421</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>91.87369334916323</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>214.1238107588397</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>187.6925772204828</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>352.9961612166815</v>
       </c>
     </row>
     <row r="21">
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>78.40425870347441</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>137.1238099094098</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24211,13 +24211,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>312.8156244352832</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>145.9927856228092</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>107.7439527351647</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>150.3991599658281</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24445,13 +24445,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -24502,10 +24502,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>294.3692147095461</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>135.3794805373014</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24651,16 +24651,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>193.7342226507008</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>160.3027978282313</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24691,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>390.5277909978263</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>170.6765726202088</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>175.8538397776871</v>
+        <v>14.02380761802718</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24925,13 +24925,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>92.83950704429088</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
@@ -24973,13 +24973,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>331.8898480104172</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>197.6259927259851</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>171.1980047911943</v>
       </c>
     </row>
     <row r="35">
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>88.40752233460734</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>255.180547410985</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>11.68732481001896</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25368,7 +25368,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>192.8530174141328</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25402,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>229.2695069934088</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>222.7020862222412</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>72.66698746754824</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25608,7 +25608,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>26.60896670133658</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25630,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>86.93565616285781</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>133.0844861902442</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25690,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>53.58580427589349</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>45.19804192796411</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25870,19 +25870,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>66.40041231066539</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>271.814570777056</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,22 +26025,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>43.0165315563209</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -26085,10 +26085,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>119.8601725377269</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>424931.0936061949</v>
+        <v>424931.0936061952</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>424931.0936061949</v>
+        <v>424931.0936061951</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>658545.8706526516</v>
+        <v>424931.0936061952</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>839054.4922903113</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903114</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903114</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>839054.4922903113</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>839054.4922903117</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>158307.6623238765</v>
       </c>
       <c r="D2" t="n">
-        <v>245340.6184784387</v>
+        <v>158307.6623238765</v>
       </c>
       <c r="E2" t="n">
         <v>312588.9285003119</v>
       </c>
       <c r="F2" t="n">
-        <v>312588.9285003116</v>
+        <v>312588.9285003118</v>
       </c>
       <c r="G2" t="n">
+        <v>312588.928500312</v>
+      </c>
+      <c r="H2" t="n">
+        <v>312588.928500312</v>
+      </c>
+      <c r="I2" t="n">
         <v>312588.9285003117</v>
       </c>
-      <c r="H2" t="n">
-        <v>312588.9285003116</v>
-      </c>
-      <c r="I2" t="n">
-        <v>312588.9285003118</v>
-      </c>
       <c r="J2" t="n">
-        <v>312588.9285003119</v>
+        <v>312588.9285003117</v>
       </c>
       <c r="K2" t="n">
         <v>312588.9285003117</v>
       </c>
       <c r="L2" t="n">
-        <v>312588.9285003118</v>
+        <v>312588.9285003119</v>
       </c>
       <c r="M2" t="n">
-        <v>312588.9285003119</v>
+        <v>312588.9285003117</v>
       </c>
       <c r="N2" t="n">
-        <v>312588.9285003118</v>
+        <v>312588.9285003117</v>
       </c>
       <c r="O2" t="n">
-        <v>312588.9285003119</v>
+        <v>312588.9285003116</v>
       </c>
       <c r="P2" t="n">
-        <v>312588.9285003119</v>
+        <v>312588.9285003116</v>
       </c>
     </row>
     <row r="3">
@@ -26365,46 +26365,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208449</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>371558.5249487665</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>276030.7457669103</v>
+        <v>627134.6436336678</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854453</v>
+        <v>49064.94472854461</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>89743.37813127038</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>72091.35261608622</v>
+        <v>160456.4418678773</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.8001180723338</v>
+        <v>137.8001180723341</v>
       </c>
       <c r="C4" t="n">
-        <v>137.8001180723338</v>
+        <v>137.800118072334</v>
       </c>
       <c r="D4" t="n">
-        <v>384.3219252469136</v>
+        <v>137.800118072334</v>
       </c>
       <c r="E4" t="n">
         <v>584.6469890061234</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061228</v>
+        <v>584.6469890061234</v>
       </c>
       <c r="G4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="H4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="I4" t="n">
         <v>584.6469890061231</v>
@@ -26456,10 +26456,10 @@
         <v>584.6469890061231</v>
       </c>
       <c r="O4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
-        <v>584.6469890061234</v>
+        <v>584.6469890061231</v>
       </c>
     </row>
     <row r="5">
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161354</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161353</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="E5" t="n">
         <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
         <v>74306.34056139328</v>
@@ -26499,19 +26499,19 @@
         <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-502366.9027456889</v>
+        <v>-491392.2469285583</v>
       </c>
       <c r="C6" t="n">
-        <v>88989.99977515594</v>
+        <v>99964.65559228718</v>
       </c>
       <c r="D6" t="n">
-        <v>-219414.6903676099</v>
+        <v>99964.65559228715</v>
       </c>
       <c r="E6" t="n">
-        <v>-42406.80019516739</v>
+        <v>-389844.1022215724</v>
       </c>
       <c r="F6" t="n">
-        <v>233623.9455717431</v>
+        <v>237290.5414120954</v>
       </c>
       <c r="G6" t="n">
-        <v>233623.9455717425</v>
+        <v>237290.5414120956</v>
       </c>
       <c r="H6" t="n">
-        <v>233623.9455717426</v>
+        <v>237290.5414120956</v>
       </c>
       <c r="I6" t="n">
-        <v>233623.9455717426</v>
+        <v>237290.5414120955</v>
       </c>
       <c r="J6" t="n">
-        <v>184559.0008431983</v>
+        <v>188225.5966835507</v>
       </c>
       <c r="K6" t="n">
-        <v>233623.9455717426</v>
+        <v>237290.5414120953</v>
       </c>
       <c r="L6" t="n">
-        <v>143880.5674404724</v>
+        <v>237290.5414120955</v>
       </c>
       <c r="M6" t="n">
-        <v>161532.5929556566</v>
+        <v>76834.09954421809</v>
       </c>
       <c r="N6" t="n">
-        <v>233623.9455717427</v>
+        <v>237290.5414120953</v>
       </c>
       <c r="O6" t="n">
-        <v>233623.9455717426</v>
+        <v>237290.5414120952</v>
       </c>
       <c r="P6" t="n">
-        <v>233623.9455717429</v>
+        <v>237290.5414120952</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26776,10 +26776,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663195</v>
+        <v>187.52558716632</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261631</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022925</v>
@@ -26819,19 +26819,19 @@
         <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>305.2407236247799</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>236.0660360556144</v>
+        <v>541.306759680394</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>354.5893695598436</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>289.2864986761297</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598436</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761297</v>
+        <v>643.8758682359725</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598436</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761297</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954483</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043114</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655542</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528637</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.950432967289</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470271</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622677</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244292</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974682</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619219</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924574</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31123,46 +31123,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590848</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340082</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621735</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405031</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975328</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829652</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292671</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.276266862887</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550071</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288819</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820366</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620011</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114189</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276989</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604413</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592432</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784854</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647907</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181392</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954483</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043114</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655542</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528637</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L5" t="n">
-        <v>347.950432967289</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470271</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O5" t="n">
-        <v>371.5015668622677</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244292</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974682</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619219</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924574</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U5" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31360,46 +31360,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>40.61782109590848</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340082</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621735</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405031</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975328</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829652</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292671</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P6" t="n">
-        <v>225.276266862887</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550071</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S6" t="n">
-        <v>21.91292641288819</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820366</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620011</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I7" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114189</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L7" t="n">
-        <v>147.0438920276989</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604413</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592432</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784854</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647907</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181392</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953987</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752254</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802168</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563551</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953991</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095006</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33031,7 +33031,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233475</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33262,7 +33262,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33271,7 +33271,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837925</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34131,40 +34131,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34283,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002919</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538867938</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788315</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973018</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197544</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>141.403355440581</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915967</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065958</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781455</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606289</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755144</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996319</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848227</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.3018594485568</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764987</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646066</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061144</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520815</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400438</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538867938</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788315</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973018</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197544</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O5" t="n">
-        <v>141.403355440581</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656915967</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065958</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781455</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L6" t="n">
-        <v>117.5966053606289</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755144</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996319</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848227</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P6" t="n">
-        <v>91.3018594485568</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764987</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646066</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061144</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520815</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400438</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193715</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966696</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M16" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O16" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.05128016014211</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222296</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K19" t="n">
-        <v>99.30389319966699</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M19" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687128</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129097</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K22" t="n">
-        <v>99.30389319966699</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L22" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M22" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O22" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013292</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36919,7 +36919,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004592</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127261</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K43" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L43" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M43" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N43" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O43" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P43" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859617</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K46" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L46" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M46" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N46" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O46" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
